--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OneDrive - Universidad de Oviedo\Docencia\2019-2020\Algoritmia\Estudiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\Eclipse\algorithmicsGarciaDiazVicenteUO42478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:4000b_{A87FA765-4831-4C63-B08A-DADBB379C1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8AA3558-1285-4212-8027-AB5FF06B8A73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C8044-EF71-4124-89E1-C6A69699635B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Álvarez Álvarez, Martín</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -65,9 +62,6 @@
     <t>Test mark</t>
   </si>
   <si>
-    <t>Maximum possible marks in labs = 7</t>
-  </si>
-  <si>
     <t>Important:</t>
   </si>
   <si>
@@ -183,7 +177,35 @@
     </r>
   </si>
   <si>
-    <t>Please, don't change this file</t>
+    <t>Please, don't change this file after you indicate your name</t>
+  </si>
+  <si>
+    <t>García Díaz, Vicente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total maximum possible </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Final mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> without taking the final exam =&gt; 7 points</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Each lab will be graded with a score between 0 and 7 </t>
   </si>
 </sst>
 </file>
@@ -309,24 +331,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -351,6 +356,23 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
         <top style="thin">
           <color indexed="8"/>
         </top>
@@ -367,12 +389,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -383,12 +405,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -399,12 +421,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -415,12 +437,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -431,12 +453,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -447,12 +469,12 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -495,6 +517,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,13 +546,13 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4+I4)/8</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="2">
+      <calculatedColumnFormula>(B4+C4+D4+E4+F4+2*G4+H4+2*I4)/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -854,7 +883,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -873,44 +902,44 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -921,7 +950,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
+        <f>(B4+C4+D4+E4+F4+2*G4+H4+2*I4)/10</f>
         <v>0</v>
       </c>
     </row>
@@ -1008,25 +1037,29 @@
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\Eclipse\algorithmicsGarciaDiazVicenteUO42478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C8044-EF71-4124-89E1-C6A69699635B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAB133-E250-447E-8CF6-42A70C0D8691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,27 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Lab 0, 1.1, 1.2</t>
-  </si>
-  <si>
-    <t>Lab 5 (Dynamic Prog.)</t>
-  </si>
-  <si>
-    <t>Lab 6 (Backtracking)</t>
-  </si>
-  <si>
-    <t>Lab 7 (Branch&amp;Bound)</t>
-  </si>
-  <si>
-    <t>Lab 2 (Sorting)</t>
-  </si>
-  <si>
-    <t>Lab 3 (D&amp;C)</t>
-  </si>
-  <si>
-    <t>Lab 4 (Greedy)</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -205,7 +184,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Each lab will be graded with a score between 0 and 7 </t>
+    <t>Session 0, 1.1, 1.2</t>
+  </si>
+  <si>
+    <t>Session 2 (Sorting)</t>
+  </si>
+  <si>
+    <t>Session 3 (D&amp;C)</t>
+  </si>
+  <si>
+    <t>Session 4 (Greedy)</t>
+  </si>
+  <si>
+    <t>Session 5 (Dynamic Prog.)</t>
+  </si>
+  <si>
+    <t>Session 6 (Backtracking)</t>
+  </si>
+  <si>
+    <t>Session 7 (Branch&amp;Bound)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each session will be graded with a score between 0 and 7 </t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -362,23 +379,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -518,13 +518,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -543,15 +536,15 @@
   <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Session 0, 1.1, 1.2" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Session 2 (Sorting)" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Session 3 (D&amp;C)" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Session 4 (Greedy)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Session 5 (Dynamic Prog.)" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
       <calculatedColumnFormula>(B4+C4+D4+E4+F4+2*G4+H4+2*I4)/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -883,7 +876,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,44 +895,44 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1037,7 +1030,7 @@
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1047,17 +1040,17 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\Eclipse\algorithmicsGarciaDiazVicenteUO42478\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicen\git\algorithmicsGarciaDiazVicenteUO42478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAB133-E250-447E-8CF6-42A70C0D8691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD47017-13A3-40B4-A991-1C202C3B8F53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
     <t>Session 7 (Branch&amp;Bound)</t>
   </si>
   <si>
-    <t xml:space="preserve">Each session will be graded with a score between 0 and 7 </t>
+    <t>Each session will be graded with a score between 0 and 10</t>
   </si>
 </sst>
 </file>
@@ -544,9 +544,7 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Session 6 (Backtracking)" dataDxfId="3"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Session 7 (Branch&amp;Bound)" dataDxfId="2"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+E4+F4+2*G4+H4+2*I4)/10</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -876,7 +874,7 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -942,10 +940,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <f>(B4+C4+D4+E4+F4+2*G4+H4+2*I4)/10</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CA53F-C6BD-4456-9B29-54940C1CBB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592AB669-C717-457C-B4FF-6051A2EEBFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="2565" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Mark (scale 1-10)</t>
+  </si>
+  <si>
+    <t>Great work, great explanations</t>
   </si>
 </sst>
 </file>
@@ -405,17 +408,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +793,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C5" sqref="C5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,10 +843,10 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -854,103 +857,107 @@
       <c r="B4" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592AB669-C717-457C-B4FF-6051A2EEBFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA575E8-15B3-4747-8E13-3A90A9BF3D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2565" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Great work, great explanations</t>
+  </si>
+  <si>
+    <t>Perfect</t>
   </si>
 </sst>
 </file>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,7 +863,9 @@
       <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -868,7 +873,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>2</v>
+        <v>3.33</v>
       </c>
       <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -882,7 +887,9 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA575E8-15B3-4747-8E13-3A90A9BF3D1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502C98D-451C-4107-A618-2D99CDFC8898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -796,7 +796,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -866,14 +866,16 @@
       <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>3.33</v>
+        <v>4.66</v>
       </c>
       <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
@@ -890,7 +892,9 @@
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502C98D-451C-4107-A618-2D99CDFC8898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BA32D-7EDC-434C-A51D-5DACB7C03084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Perfect</t>
+  </si>
+  <si>
+    <t>Very good. Stack memory is around O(1) for dynamic programming and O(n) for the recursive version of the algorithm (taking into account the height of the tree of states). Recursive implementation should be O(3^n) since we need to always do the 3 calls to guarantee a correct solution.</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,6 +423,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,7 +802,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -869,17 +875,19 @@
       <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>9</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>4.66</v>
+        <v>5.8659999999999997</v>
       </c>
       <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,7 +903,9 @@
       <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -905,7 +915,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -915,7 +925,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -925,7 +935,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -935,7 +945,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -945,7 +955,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -955,7 +965,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -965,7 +975,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BA32D-7EDC-434C-A51D-5DACB7C03084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557180C4-90E6-432F-A384-AE897E4BA303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Very good. Stack memory is around O(1) for dynamic programming and O(n) for the recursive version of the algorithm (taking into account the height of the tree of states). Recursive implementation should be O(3^n) since we need to always do the 3 calls to guarantee a correct solution.</t>
+  </si>
+  <si>
+    <t>Almost perfect. There is an exception if for example time is 1 minute and there is no room for any song</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -878,16 +881,18 @@
       <c r="F4" s="6">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>9.75</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>5.8659999999999997</v>
+        <v>7.8159999999999998</v>
       </c>
       <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,9 +911,11 @@
       <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
@@ -916,9 +923,9 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
@@ -926,9 +933,9 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
@@ -936,9 +943,9 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -946,9 +953,9 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
@@ -956,9 +963,9 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
@@ -966,9 +973,9 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
@@ -976,9 +983,9 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-4-IglesiasPréstamoÁngel-UO270534\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557180C4-90E6-432F-A384-AE897E4BA303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C7D336-2F2A-4685-BF60-E5CE517987D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Please, don't change this file after you indicate your name</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Almost perfect. There is an exception if for example time is 1 minute and there is no room for any song</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Very good. To greatly improve times, you may also comment lines 35 and 37 in Heap.java file. That part is only used to check if a node is already repeated but in this problem that will never happen. The times are going to be much much better without it. Your way of calculating the heuristic value is maybe not so good: whenever you find a solution you will prune all the nodes which score lower than the solution you found (and those nodes may lead to a better solution after processing them)</t>
   </si>
 </sst>
 </file>
@@ -423,13 +429,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +811,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I12"/>
+      <selection activeCell="H5" sqref="H5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,108 +890,114 @@
       <c r="G4" s="6">
         <v>9.75</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="6">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="9">
         <f>(B4*0.1+C4*0.1+D4*0.133+E4*0.133+F4*0.134+G4*0.2+H4*0.2)</f>
-        <v>7.8159999999999998</v>
+        <v>9.6159999999999997</v>
       </c>
       <c r="K4" s="10">
         <f>IF(AND(J4&gt;=9,J4&lt;=10),7, IF(AND(J4&gt;=8,J4&lt;9),6.5, IF(AND(J4&gt;=7,J4&lt;8),6, IF(AND(J4&gt;=6,J4&lt;7),5.5, IF(AND(J4&gt;=5,J4&lt;6),5,4)))))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
